--- a/PROJECTRESULTS/set_covering_summary.xlsx
+++ b/PROJECTRESULTS/set_covering_summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="91">
   <si>
     <t>Input CSV</t>
   </si>
@@ -81,105 +81,108 @@
     <t>kmeans_18</t>
   </si>
   <si>
+    <t>kmeans_21</t>
+  </si>
+  <si>
+    <t>kmeans_35</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>rand_nn</t>
+  </si>
+  <si>
+    <t>Input Coordinates Plot (Part 1)</t>
+  </si>
+  <si>
+    <t>Final Clusters Plot (Part 1)</t>
+  </si>
+  <si>
+    <t>Final Clusters CSV File (Part 1)</t>
+  </si>
+  <si>
+    <t>split_merge_osm_data_part1.csv</t>
+  </si>
+  <si>
+    <t>set_covering_osm_data_part2.csv</t>
+  </si>
+  <si>
+    <t>kmeans_20</t>
+  </si>
+  <si>
+    <t>kmeans_24</t>
+  </si>
+  <si>
+    <t>kmeans_26</t>
+  </si>
+  <si>
+    <t>Input Coordinates Plot (Part 2)</t>
+  </si>
+  <si>
+    <t>Final Clusters Plot (Part 2)</t>
+  </si>
+  <si>
+    <t>Final Clusters CSV File (Part 2)</t>
+  </si>
+  <si>
+    <t>split_merge_osm_data_part2.csv</t>
+  </si>
+  <si>
+    <t>set_covering_osm_data_part3.csv</t>
+  </si>
+  <si>
+    <t>Input Coordinates Plot (Part 3)</t>
+  </si>
+  <si>
+    <t>Final Clusters Plot (Part 3)</t>
+  </si>
+  <si>
+    <t>Final Clusters CSV File (Part 3)</t>
+  </si>
+  <si>
+    <t>split_merge_osm_data_part3.csv</t>
+  </si>
+  <si>
+    <t>set_covering_osm_data_part4.csv</t>
+  </si>
+  <si>
+    <t>Input Coordinates Plot (Part 4)</t>
+  </si>
+  <si>
+    <t>Final Clusters Plot (Part 4)</t>
+  </si>
+  <si>
+    <t>Final Clusters CSV File (Part 4)</t>
+  </si>
+  <si>
+    <t>split_merge_osm_data_part4.csv</t>
+  </si>
+  <si>
+    <t>set_covering_osm_data_part5.csv</t>
+  </si>
+  <si>
     <t>kmeans_19</t>
   </si>
   <si>
-    <t>kmeans_21</t>
-  </si>
-  <si>
-    <t>nn</t>
-  </si>
-  <si>
-    <t>rand_nn</t>
-  </si>
-  <si>
-    <t>Input Coordinates Plot (Part 1)</t>
-  </si>
-  <si>
-    <t>Final Clusters Plot (Part 1)</t>
-  </si>
-  <si>
-    <t>Final Clusters CSV File (Part 1)</t>
-  </si>
-  <si>
-    <t>split_merge_osm_data_part1.csv</t>
-  </si>
-  <si>
-    <t>set_covering_osm_data_part2.csv</t>
+    <t>Input Coordinates Plot (Part 5)</t>
+  </si>
+  <si>
+    <t>Final Clusters Plot (Part 5)</t>
+  </si>
+  <si>
+    <t>Final Clusters CSV File (Part 5)</t>
+  </si>
+  <si>
+    <t>split_merge_osm_data_part5.csv</t>
+  </si>
+  <si>
+    <t>set_covering_osm_data_part6.csv</t>
   </si>
   <si>
     <t>kmeans_split_from_19</t>
   </si>
   <si>
-    <t>kmeans_20</t>
-  </si>
-  <si>
-    <t>kmeans_26</t>
-  </si>
-  <si>
-    <t>kmeans_35</t>
-  </si>
-  <si>
-    <t>Input Coordinates Plot (Part 2)</t>
-  </si>
-  <si>
-    <t>Final Clusters Plot (Part 2)</t>
-  </si>
-  <si>
-    <t>Final Clusters CSV File (Part 2)</t>
-  </si>
-  <si>
-    <t>split_merge_osm_data_part2.csv</t>
-  </si>
-  <si>
-    <t>set_covering_osm_data_part3.csv</t>
-  </si>
-  <si>
-    <t>Input Coordinates Plot (Part 3)</t>
-  </si>
-  <si>
-    <t>Final Clusters Plot (Part 3)</t>
-  </si>
-  <si>
-    <t>Final Clusters CSV File (Part 3)</t>
-  </si>
-  <si>
-    <t>split_merge_osm_data_part3.csv</t>
-  </si>
-  <si>
-    <t>set_covering_osm_data_part4.csv</t>
-  </si>
-  <si>
-    <t>Input Coordinates Plot (Part 4)</t>
-  </si>
-  <si>
-    <t>Final Clusters Plot (Part 4)</t>
-  </si>
-  <si>
-    <t>Final Clusters CSV File (Part 4)</t>
-  </si>
-  <si>
-    <t>split_merge_osm_data_part4.csv</t>
-  </si>
-  <si>
-    <t>set_covering_osm_data_part5.csv</t>
-  </si>
-  <si>
-    <t>Input Coordinates Plot (Part 5)</t>
-  </si>
-  <si>
-    <t>Final Clusters Plot (Part 5)</t>
-  </si>
-  <si>
-    <t>Final Clusters CSV File (Part 5)</t>
-  </si>
-  <si>
-    <t>split_merge_osm_data_part5.csv</t>
-  </si>
-  <si>
-    <t>set_covering_osm_data_part6.csv</t>
-  </si>
-  <si>
     <t>Input Coordinates Plot (Part 6)</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
     <t>set_covering_osm_data_part9.csv</t>
   </si>
   <si>
+    <t>kmeans_30</t>
+  </si>
+  <si>
     <t>Input Coordinates Plot (Part 9)</t>
   </si>
   <si>
@@ -258,9 +264,6 @@
     <t>set_covering_osm_data_part11.csv</t>
   </si>
   <si>
-    <t>kmeans_split_from_22</t>
-  </si>
-  <si>
     <t>kmeans_33</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
   </si>
   <si>
     <t>kmeans_split_from_23</t>
+  </si>
+  <si>
+    <t>kmeans_23</t>
   </si>
   <si>
     <t>Input Coordinates Plot (Part 12)</t>
@@ -1652,13 +1658,13 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>390.5383292497434</v>
+        <v>379.4713069677883</v>
       </c>
       <c r="D2">
-        <v>1731.076658499487</v>
+        <v>1708.942613935577</v>
       </c>
       <c r="E2">
-        <v>36.10823797856411</v>
+        <v>35.79203734193681</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1689,80 +1695,80 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>4.93</v>
+        <v>25.08</v>
       </c>
       <c r="E7">
-        <v>2.69</v>
+        <v>0.97</v>
       </c>
       <c r="F7">
-        <v>9.85</v>
+        <v>50.17</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>59.85</v>
+        <v>100.17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>7.58</v>
+        <v>3.92</v>
       </c>
       <c r="E8">
-        <v>1.42</v>
+        <v>2.61</v>
       </c>
       <c r="F8">
-        <v>15.16</v>
+        <v>7.83</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>65.16</v>
+        <v>57.83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>21.46</v>
+        <v>6.46</v>
       </c>
       <c r="E9">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="F9">
-        <v>42.92</v>
+        <v>12.92</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>92.92</v>
+        <v>62.92</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1773,22 +1779,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>25.16</v>
+        <v>23.4</v>
       </c>
       <c r="E10">
         <v>2.42</v>
       </c>
       <c r="F10">
-        <v>50.32</v>
+        <v>46.8</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>100.32</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1802,19 +1808,19 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>25.93</v>
+        <v>24.96</v>
       </c>
       <c r="E11">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="F11">
-        <v>51.85</v>
+        <v>49.91</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>101.85</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1825,16 +1831,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>13.12</v>
+        <v>24.19</v>
       </c>
       <c r="E12">
-        <v>0.92</v>
+        <v>2.89</v>
       </c>
       <c r="F12">
-        <v>26.25</v>
+        <v>48.39</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -1845,28 +1851,28 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>24.28</v>
+        <v>18.95</v>
       </c>
       <c r="E13">
-        <v>2.89</v>
+        <v>1.14</v>
       </c>
       <c r="F13">
-        <v>48.57</v>
+        <v>37.91</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>98.56999999999999</v>
+        <v>87.91</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1880,258 +1886,258 @@
         <v>47</v>
       </c>
       <c r="D14">
-        <v>24.12</v>
+        <v>23.67</v>
       </c>
       <c r="E14">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="F14">
-        <v>48.23</v>
+        <v>47.34</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>98.23</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>25.08</v>
+        <v>22.41</v>
       </c>
       <c r="E15">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
       <c r="F15">
-        <v>50.17</v>
+        <v>44.83</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>100.17</v>
+        <v>94.83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>22.32</v>
+        <v>18.33</v>
       </c>
       <c r="E16">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="F16">
-        <v>44.64</v>
+        <v>36.66</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>94.64</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>8.67</v>
+        <v>21.75</v>
       </c>
       <c r="E17">
-        <v>1.15</v>
+        <v>2.32</v>
       </c>
       <c r="F17">
-        <v>17.34</v>
+        <v>43.51</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>67.34</v>
+        <v>93.51000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>22.61</v>
+        <v>26.58</v>
       </c>
       <c r="E18">
-        <v>1.2</v>
+        <v>2.36</v>
       </c>
       <c r="F18">
-        <v>45.22</v>
+        <v>53.16</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>95.22</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>102</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>27.85</v>
+        <v>20.99</v>
       </c>
       <c r="E19">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="F19">
-        <v>55.69</v>
+        <v>41.98</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>105.69</v>
+        <v>91.98</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>22.02</v>
+        <v>14.11</v>
       </c>
       <c r="E20">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="F20">
-        <v>44.03</v>
+        <v>28.22</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>94.03</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>24.22</v>
+        <v>20.11</v>
       </c>
       <c r="E21">
-        <v>2.39</v>
+        <v>1.62</v>
       </c>
       <c r="F21">
-        <v>48.43</v>
+        <v>40.22</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>98.43000000000001</v>
+        <v>90.22</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>24.15</v>
+        <v>24.27</v>
       </c>
       <c r="E22">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="F22">
-        <v>48.3</v>
+        <v>48.53</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>98.3</v>
+        <v>98.53</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>26.29</v>
+        <v>14.47</v>
       </c>
       <c r="E23">
-        <v>1.9</v>
+        <v>1.11</v>
       </c>
       <c r="F23">
-        <v>52.57</v>
+        <v>28.94</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>102.57</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2140,45 +2146,45 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>20.67</v>
+        <v>22.98</v>
       </c>
       <c r="E24">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="F24">
-        <v>41.34</v>
+        <v>45.97</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>91.34</v>
+        <v>95.97</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>20.1</v>
+        <v>22.84</v>
       </c>
       <c r="E25">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="F25">
-        <v>40.19</v>
+        <v>45.68</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="H25">
-        <v>90.19</v>
+        <v>95.68000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -2224,19 +2230,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>195.3562263050359</v>
+        <v>187.2457356169032</v>
       </c>
       <c r="D2">
-        <v>1340.712452610072</v>
+        <v>1224.491471233806</v>
       </c>
       <c r="E2">
-        <v>30.53160646585818</v>
+        <v>30.29987816048295</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2276,497 +2282,445 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>5.55</v>
+        <v>5.09</v>
       </c>
       <c r="E7">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="F7">
-        <v>11.1</v>
+        <v>10.17</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>61.1</v>
+        <v>60.17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>14.16</v>
+        <v>12.7</v>
       </c>
       <c r="E8">
-        <v>0.95</v>
+        <v>2.36</v>
       </c>
       <c r="F8">
-        <v>28.32</v>
+        <v>25.39</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>78.31999999999999</v>
+        <v>75.39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>8.94</v>
+        <v>13.82</v>
       </c>
       <c r="E9">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9">
-        <v>17.88</v>
+        <v>27.64</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>67.88</v>
+        <v>77.64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>3.62</v>
+        <v>6.07</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>3.42</v>
       </c>
       <c r="F10">
-        <v>7.24</v>
+        <v>12.14</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>57.24</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>6.8</v>
+        <v>4.45</v>
       </c>
       <c r="E11">
-        <v>3.44</v>
+        <v>0.98</v>
       </c>
       <c r="F11">
-        <v>13.6</v>
+        <v>8.9</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>63.6</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>10.41</v>
+        <v>15.31</v>
       </c>
       <c r="E12">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="F12">
-        <v>20.83</v>
+        <v>30.62</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>14.29</v>
+        <v>4.73</v>
       </c>
       <c r="E13">
-        <v>2.41</v>
+        <v>1.34</v>
       </c>
       <c r="F13">
-        <v>28.58</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>78.58</v>
+        <v>59.47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>4.89</v>
+        <v>6.63</v>
       </c>
       <c r="E14">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F14">
-        <v>9.77</v>
+        <v>13.25</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>59.77</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>15.61</v>
+        <v>16.17</v>
       </c>
       <c r="E15">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="F15">
-        <v>31.21</v>
+        <v>32.35</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>81.20999999999999</v>
+        <v>82.34999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>17.52</v>
+        <v>14.83</v>
       </c>
       <c r="E16">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="F16">
-        <v>35.03</v>
+        <v>29.67</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>85.03</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>5.93</v>
+        <v>2.29</v>
       </c>
       <c r="E17">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="F17">
-        <v>11.86</v>
+        <v>4.58</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>61.86</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>6.78</v>
+        <v>3.32</v>
       </c>
       <c r="E18">
-        <v>0.9399999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="F18">
-        <v>13.56</v>
+        <v>6.64</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>63.56</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>16.35</v>
+        <v>4.99</v>
       </c>
       <c r="E19">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="F19">
-        <v>32.69</v>
+        <v>9.98</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>82.69</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>15.65</v>
+        <v>24.11</v>
       </c>
       <c r="E20">
-        <v>1.7</v>
+        <v>2.84</v>
       </c>
       <c r="F20">
-        <v>31.29</v>
+        <v>48.22</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>81.29000000000001</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>8.56</v>
+        <v>22.2</v>
       </c>
       <c r="E21">
-        <v>0.89</v>
+        <v>1.68</v>
       </c>
       <c r="F21">
-        <v>17.12</v>
+        <v>44.4</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>67.12</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>2.81</v>
+        <v>10.95</v>
       </c>
       <c r="E22">
-        <v>1.93</v>
+        <v>2.61</v>
       </c>
       <c r="F22">
-        <v>5.61</v>
+        <v>21.89</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>55.61</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>489</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>10.87</v>
+        <v>19.59</v>
       </c>
       <c r="E23">
-        <v>0.71</v>
+        <v>1.76</v>
       </c>
       <c r="F23">
-        <v>21.74</v>
+        <v>39.17</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>71.73999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>18.79</v>
-      </c>
-      <c r="E24">
-        <v>1.94</v>
-      </c>
-      <c r="F24">
-        <v>37.57</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>87.56999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>7.85</v>
-      </c>
-      <c r="E25">
-        <v>0.87</v>
-      </c>
-      <c r="F25">
-        <v>15.7</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>65.7</v>
+        <v>89.17</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2802,19 +2756,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2">
-        <v>179.1468548378476</v>
+        <v>163.997271289685</v>
       </c>
       <c r="D2">
-        <v>1308.293709675695</v>
+        <v>1277.99454257937</v>
       </c>
       <c r="E2">
-        <v>30.06848156679565</v>
+        <v>29.63563632256243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2854,19 +2808,19 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>10.04</v>
+        <v>8.73</v>
       </c>
       <c r="E7">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
-        <v>20.07</v>
+        <v>17.47</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>70.06999999999999</v>
+        <v>67.47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2880,19 +2834,19 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>4.08</v>
+        <v>3.65</v>
       </c>
       <c r="E8">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="F8">
-        <v>8.16</v>
+        <v>7.29</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>58.16</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2906,19 +2860,19 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>6.31</v>
+        <v>6.21</v>
       </c>
       <c r="E9">
         <v>1.33</v>
       </c>
       <c r="F9">
-        <v>12.62</v>
+        <v>12.42</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>62.62</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2932,19 +2886,19 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>6.16</v>
+        <v>5.17</v>
       </c>
       <c r="E10">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>12.32</v>
+        <v>10.35</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>62.32</v>
+        <v>60.35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2955,48 +2909,48 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>10.38</v>
+        <v>10.89</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="F11">
-        <v>20.76</v>
+        <v>21.79</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>70.76000000000001</v>
+        <v>71.79000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>7.61</v>
+        <v>7.85</v>
       </c>
       <c r="E12">
-        <v>5.12</v>
+        <v>5.37</v>
       </c>
       <c r="F12">
-        <v>15.23</v>
+        <v>15.7</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3007,204 +2961,204 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>7.39</v>
+        <v>6.93</v>
       </c>
       <c r="E13">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="F13">
-        <v>14.79</v>
+        <v>13.86</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>64.79000000000001</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>5.04</v>
+        <v>2.97</v>
       </c>
       <c r="E14">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="F14">
-        <v>10.09</v>
+        <v>5.94</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>60.09</v>
+        <v>55.94</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
       <c r="D15">
-        <v>10.31</v>
+        <v>8.15</v>
       </c>
       <c r="E15">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="F15">
-        <v>20.61</v>
+        <v>16.3</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>70.61</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>2.86</v>
+        <v>3.19</v>
       </c>
       <c r="E16">
-        <v>0.68</v>
+        <v>1.84</v>
       </c>
       <c r="F16">
-        <v>5.71</v>
+        <v>6.38</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>55.71</v>
+        <v>56.38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>10.02</v>
+        <v>3.45</v>
       </c>
       <c r="E17">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="F17">
-        <v>20.04</v>
+        <v>6.89</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>70.04000000000001</v>
+        <v>56.89</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>9.92</v>
+        <v>9.49</v>
       </c>
       <c r="E18">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="F18">
-        <v>19.84</v>
+        <v>18.98</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>69.84</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>3.03</v>
+        <v>3.69</v>
       </c>
       <c r="E19">
-        <v>0.6899999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="F19">
-        <v>6.06</v>
+        <v>7.38</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>56.06</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>4.54</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E20">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="F20">
-        <v>9.08</v>
+        <v>18.77</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>59.08</v>
+        <v>68.77</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3212,25 +3166,25 @@
         <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="E21">
         <v>0.64</v>
       </c>
       <c r="F21">
-        <v>13.56</v>
+        <v>13.52</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>63.56</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3241,22 +3195,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>14.94</v>
+        <v>14.58</v>
       </c>
       <c r="E22">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="F22">
-        <v>29.88</v>
+        <v>29.16</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>79.88</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3270,19 +3224,19 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>22.77</v>
+        <v>20.77</v>
       </c>
       <c r="E23">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="F23">
-        <v>45.55</v>
+        <v>41.55</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>95.55</v>
+        <v>91.55</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3293,22 +3247,22 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>16.67</v>
+        <v>13.28</v>
       </c>
       <c r="E24">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="F24">
-        <v>33.34</v>
+        <v>26.56</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>83.34</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3322,29 +3276,29 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>20.29</v>
+        <v>18.84</v>
       </c>
       <c r="E25">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="F25">
-        <v>40.58</v>
+        <v>37.68</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="H25">
-        <v>90.58</v>
+        <v>87.68000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3380,19 +3334,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>190.2157387747681</v>
+        <v>189.9193497067078</v>
       </c>
       <c r="D2">
-        <v>1230.431477549536</v>
+        <v>1279.838699413416</v>
       </c>
       <c r="E2">
-        <v>30.38473539356481</v>
+        <v>30.37626713447737</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3432,19 +3386,19 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E7">
         <v>1.61</v>
       </c>
       <c r="F7">
-        <v>11.14</v>
+        <v>11.09</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>61.14</v>
+        <v>61.09</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3458,45 +3412,45 @@
         <v>37</v>
       </c>
       <c r="D8">
-        <v>14.79</v>
+        <v>14.44</v>
       </c>
       <c r="E8">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="F8">
-        <v>29.59</v>
+        <v>28.89</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>79.59</v>
+        <v>78.89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>6.71</v>
+        <v>7.89</v>
       </c>
       <c r="E9">
-        <v>3.59</v>
+        <v>1.18</v>
       </c>
       <c r="F9">
-        <v>13.43</v>
+        <v>15.78</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>63.43</v>
+        <v>65.78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3510,19 +3464,19 @@
         <v>41</v>
       </c>
       <c r="D10">
-        <v>14.01</v>
+        <v>13.64</v>
       </c>
       <c r="E10">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="F10">
-        <v>28.01</v>
+        <v>27.27</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>78.01000000000001</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3536,24 +3490,24 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>19.26</v>
+        <v>18.8</v>
       </c>
       <c r="E11">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="F11">
-        <v>38.51</v>
+        <v>37.6</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>88.51000000000001</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -3562,19 +3516,19 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>17.26</v>
+        <v>16.97</v>
       </c>
       <c r="E12">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="F12">
-        <v>34.52</v>
+        <v>33.94</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3588,19 +3542,19 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>19.25</v>
+        <v>18.28</v>
       </c>
       <c r="E13">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="F13">
-        <v>38.49</v>
+        <v>36.56</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>88.48999999999999</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3614,19 +3568,19 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>14.38</v>
+        <v>13.53</v>
       </c>
       <c r="E14">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="F14">
-        <v>28.75</v>
+        <v>27.05</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>78.75</v>
+        <v>77.05</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3640,175 +3594,175 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>7.47</v>
+        <v>6.22</v>
       </c>
       <c r="E15">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="F15">
-        <v>14.94</v>
+        <v>12.45</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>64.94</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>11.49</v>
+        <v>19.71</v>
       </c>
       <c r="E16">
-        <v>2.03</v>
+        <v>1.11</v>
       </c>
       <c r="F16">
-        <v>22.98</v>
+        <v>39.42</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>72.98</v>
+        <v>89.42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>20.39</v>
+        <v>6.06</v>
       </c>
       <c r="E17">
-        <v>1.13</v>
+        <v>3.37</v>
       </c>
       <c r="F17">
-        <v>40.79</v>
+        <v>12.12</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>90.79000000000001</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>8.32</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F18">
-        <v>16.65</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>66.65000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>9.449999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="E19">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F19">
-        <v>18.89</v>
+        <v>9.4</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>68.89</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>4.63</v>
+        <v>4.83</v>
       </c>
       <c r="E20">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="F20">
-        <v>9.25</v>
+        <v>9.66</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>59.25</v>
+        <v>59.66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>5.62</v>
+        <v>13.34</v>
       </c>
       <c r="E21">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="F21">
-        <v>11.24</v>
+        <v>26.68</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>61.24</v>
+        <v>76.68000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3819,22 +3773,22 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
       <c r="E22">
-        <v>1.51</v>
+        <v>0.95</v>
       </c>
       <c r="F22">
-        <v>10.98</v>
+        <v>10.78</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>60.98</v>
+        <v>60.78</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3845,32 +3799,58 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>5.48</v>
+      </c>
+      <c r="E23">
+        <v>1.16</v>
+      </c>
+      <c r="F23">
+        <v>10.96</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>60.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>6.14</v>
-      </c>
-      <c r="E23">
-        <v>1.23</v>
-      </c>
-      <c r="F23">
-        <v>12.28</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>62.28</v>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>11.08</v>
+      </c>
+      <c r="E24">
+        <v>1.52</v>
+      </c>
+      <c r="F24">
+        <v>22.17</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>72.17</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3912,13 +3892,13 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>374.713972317268</v>
+        <v>369.2010999340225</v>
       </c>
       <c r="D2">
-        <v>1699.427944634536</v>
+        <v>1688.402199868045</v>
       </c>
       <c r="E2">
-        <v>35.65611349477909</v>
+        <v>35.49860285525779</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3958,19 +3938,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>22.32</v>
+        <v>21.36</v>
       </c>
       <c r="E7">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="F7">
-        <v>44.63</v>
+        <v>42.72</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>94.63</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3984,19 +3964,19 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>18.94</v>
+        <v>18.76</v>
       </c>
       <c r="E8">
         <v>1.64</v>
       </c>
       <c r="F8">
-        <v>37.88</v>
+        <v>37.53</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>87.88</v>
+        <v>87.53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4010,19 +3990,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>15.75</v>
+        <v>15.25</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F9">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>81.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4036,19 +4016,19 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>19.41</v>
+        <v>17.91</v>
       </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="F10">
-        <v>38.81</v>
+        <v>35.83</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>88.81</v>
+        <v>85.83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4062,24 +4042,24 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>15.87</v>
+        <v>14.46</v>
       </c>
       <c r="E11">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="F11">
-        <v>31.73</v>
+        <v>28.93</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>81.73</v>
+        <v>78.93000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -4088,19 +4068,19 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>19.92</v>
+        <v>18.27</v>
       </c>
       <c r="E12">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="F12">
-        <v>39.83</v>
+        <v>36.54</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4114,19 +4094,19 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>29.08</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>1.08</v>
       </c>
       <c r="F13">
-        <v>58.17</v>
+        <v>58.01</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>108.17</v>
+        <v>108.01</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4140,19 +4120,19 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>17.68</v>
+        <v>16.34</v>
       </c>
       <c r="E14">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="F14">
-        <v>35.35</v>
+        <v>32.67</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>85.34999999999999</v>
+        <v>82.67</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4166,175 +4146,175 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>15.73</v>
+        <v>13.97</v>
       </c>
       <c r="E15">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="F15">
-        <v>31.47</v>
+        <v>27.95</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>81.47</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>18.18</v>
+        <v>19.54</v>
       </c>
       <c r="E16">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="F16">
-        <v>36.36</v>
+        <v>39.08</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>86.36</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>19.59</v>
+        <v>19.11</v>
       </c>
       <c r="E17">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="F17">
-        <v>39.18</v>
+        <v>38.21</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>89.18000000000001</v>
+        <v>88.20999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>20.5</v>
+        <v>20.69</v>
       </c>
       <c r="E18">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="F18">
-        <v>40.99</v>
+        <v>41.38</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>90.98999999999999</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>21.01</v>
+        <v>18.61</v>
       </c>
       <c r="E19">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="F19">
-        <v>42.02</v>
+        <v>37.23</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>92.02</v>
+        <v>87.23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>19.08</v>
+        <v>21.2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="F20">
-        <v>38.15</v>
+        <v>42.39</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>88.15000000000001</v>
+        <v>92.39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>22.44</v>
+        <v>17.91</v>
       </c>
       <c r="E21">
-        <v>2.84</v>
+        <v>2.06</v>
       </c>
       <c r="F21">
-        <v>44.88</v>
+        <v>35.82</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>94.88</v>
+        <v>85.81999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4348,19 +4328,19 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>21.3</v>
+        <v>21.23</v>
       </c>
       <c r="E22">
         <v>1.51</v>
       </c>
       <c r="F22">
-        <v>42.6</v>
+        <v>42.45</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>92.59999999999999</v>
+        <v>92.45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4368,7 +4348,7 @@
         <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4400,19 +4380,19 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>18.71</v>
+        <v>25.7</v>
       </c>
       <c r="E24">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="F24">
-        <v>37.42</v>
+        <v>51.4</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>87.42</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4426,29 +4406,29 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>18.58</v>
+        <v>19.23</v>
       </c>
       <c r="E25">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="F25">
-        <v>37.16</v>
+        <v>38.47</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="H25">
-        <v>87.16</v>
+        <v>88.47</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4484,19 +4464,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
       <c r="C2">
-        <v>196.794934437833</v>
+        <v>172.6412651477692</v>
       </c>
       <c r="D2">
-        <v>1293.589868875666</v>
+        <v>1245.282530295538</v>
       </c>
       <c r="E2">
-        <v>30.57271241250951</v>
+        <v>29.88260757565055</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4536,128 +4516,128 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>5.71</v>
+        <v>5.52</v>
       </c>
       <c r="E7">
         <v>0.76</v>
       </c>
       <c r="F7">
-        <v>11.43</v>
+        <v>11.04</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>61.43</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>8.99</v>
+        <v>14.22</v>
       </c>
       <c r="E8">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="F8">
-        <v>17.98</v>
+        <v>28.44</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>67.98</v>
+        <v>78.44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15.42</v>
+        <v>8.93</v>
       </c>
       <c r="E9">
-        <v>2.49</v>
+        <v>1.06</v>
       </c>
       <c r="F9">
-        <v>30.83</v>
+        <v>17.85</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>80.83</v>
+        <v>67.84999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>9.41</v>
+        <v>7.03</v>
       </c>
       <c r="E10">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="F10">
-        <v>18.82</v>
+        <v>14.05</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>68.81999999999999</v>
+        <v>64.05</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>7.97</v>
+        <v>9.91</v>
       </c>
       <c r="E11">
-        <v>1.18</v>
+        <v>2.28</v>
       </c>
       <c r="F11">
-        <v>15.93</v>
+        <v>19.82</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>65.93000000000001</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4666,19 +4646,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>11.06</v>
+        <v>10.47</v>
       </c>
       <c r="E12">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>22.12</v>
+        <v>20.94</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4692,19 +4672,19 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>8.369999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="E13">
         <v>1.44</v>
       </c>
       <c r="F13">
-        <v>16.74</v>
+        <v>16.52</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>66.73999999999999</v>
+        <v>66.52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4718,227 +4698,227 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>14.57</v>
+        <v>13.29</v>
       </c>
       <c r="E14">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="F14">
-        <v>29.14</v>
+        <v>26.59</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>79.14</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>17.34</v>
+        <v>8.56</v>
       </c>
       <c r="E15">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="F15">
-        <v>34.69</v>
+        <v>17.13</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>84.69</v>
+        <v>67.13</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>15.13</v>
+        <v>15.27</v>
       </c>
       <c r="E16">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="F16">
-        <v>30.26</v>
+        <v>30.53</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>80.26000000000001</v>
+        <v>80.53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.47</v>
+        <v>5.84</v>
       </c>
       <c r="E17">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="F17">
-        <v>24.94</v>
+        <v>11.68</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>74.94</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>13.64</v>
+        <v>14.21</v>
       </c>
       <c r="E18">
-        <v>1.69</v>
+        <v>2.91</v>
       </c>
       <c r="F18">
-        <v>27.29</v>
+        <v>28.42</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>77.29000000000001</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>13.38</v>
+        <v>10.57</v>
       </c>
       <c r="E19">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="F19">
-        <v>26.75</v>
+        <v>21.13</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>76.75</v>
+        <v>71.13</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>9.720000000000001</v>
+        <v>12.82</v>
       </c>
       <c r="E20">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="F20">
-        <v>19.44</v>
+        <v>25.64</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>69.44</v>
+        <v>75.64</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>7.33</v>
+        <v>13.07</v>
       </c>
       <c r="E21">
-        <v>1.51</v>
+        <v>2.42</v>
       </c>
       <c r="F21">
-        <v>14.66</v>
+        <v>26.13</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>64.66</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>9.130000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="E22">
-        <v>1.31</v>
+        <v>0.25</v>
       </c>
       <c r="F22">
-        <v>18.27</v>
+        <v>3.7</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>68.27</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4946,30 +4926,30 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>23</v>
-      </c>
       <c r="D23">
-        <v>6.38</v>
+        <v>5.7</v>
       </c>
       <c r="E23">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="F23">
-        <v>12.75</v>
+        <v>11.41</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>62.75</v>
+        <v>61.41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -4978,29 +4958,29 @@
         <v>21</v>
       </c>
       <c r="D24">
-        <v>10.77</v>
+        <v>7.14</v>
       </c>
       <c r="E24">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="F24">
-        <v>21.54</v>
+        <v>14.27</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>71.54000000000001</v>
+        <v>64.27</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5036,19 +5016,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>75.34487844147334</v>
+        <v>76.5819773410668</v>
       </c>
       <c r="D2">
-        <v>1050.689756882947</v>
+        <v>1003.163954682134</v>
       </c>
       <c r="E2">
-        <v>27.10271081261353</v>
+        <v>27.13805649545905</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5079,480 +5059,454 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>1.72</v>
+        <v>5.07</v>
       </c>
       <c r="E7">
-        <v>2.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F7">
-        <v>3.45</v>
+        <v>10.14</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>53.45</v>
+        <v>60.14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>5.7</v>
+        <v>6.04</v>
       </c>
       <c r="E8">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>12.07</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>61.4</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>7.09</v>
       </c>
       <c r="E9">
-        <v>2.34</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>14.17</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>52.8</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>1.08</v>
+        <v>5.54</v>
       </c>
       <c r="E10">
-        <v>2.33</v>
+        <v>1.06</v>
       </c>
       <c r="F10">
-        <v>2.16</v>
+        <v>11.09</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>52.16</v>
+        <v>61.09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
       <c r="C11">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>5.54</v>
+        <v>1.24</v>
       </c>
       <c r="E11">
-        <v>1.06</v>
+        <v>1.89</v>
       </c>
       <c r="F11">
-        <v>11.09</v>
+        <v>2.49</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>61.09</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1.16</v>
+      </c>
+      <c r="E12">
+        <v>2.83</v>
+      </c>
+      <c r="F12">
+        <v>2.31</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>6.36</v>
-      </c>
-      <c r="E12">
-        <v>1.98</v>
-      </c>
-      <c r="F12">
-        <v>12.72</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="E13">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="F13">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>52.43</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>5.4</v>
+        <v>1.18</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>2.78</v>
       </c>
       <c r="F14">
-        <v>10.79</v>
+        <v>2.35</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>60.79</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>5.58</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1.21</v>
+        <v>2.48</v>
       </c>
       <c r="F15">
-        <v>11.16</v>
+        <v>2.01</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>61.16</v>
+        <v>52.01</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>5.84</v>
+        <v>1.05</v>
       </c>
       <c r="E16">
-        <v>0.87</v>
+        <v>1.83</v>
       </c>
       <c r="F16">
-        <v>11.68</v>
+        <v>2.11</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>61.68</v>
+        <v>52.11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>26</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>5.52</v>
+        <v>3.53</v>
       </c>
       <c r="E17">
-        <v>1.06</v>
+        <v>0.4</v>
       </c>
       <c r="F17">
-        <v>11.04</v>
+        <v>7.06</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>61.04</v>
+        <v>57.06</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>1.31</v>
+        <v>6.62</v>
       </c>
       <c r="E18">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="F18">
-        <v>2.61</v>
+        <v>13.25</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>52.61</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>5.58</v>
+        <v>6.06</v>
       </c>
       <c r="E19">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="F19">
-        <v>11.16</v>
+        <v>12.12</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>61.16</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>1.38</v>
+        <v>8.27</v>
       </c>
       <c r="E20">
-        <v>2.49</v>
+        <v>1.09</v>
       </c>
       <c r="F20">
-        <v>2.76</v>
+        <v>16.54</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>52.76</v>
+        <v>66.54000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>6.47</v>
+        <v>6.43</v>
       </c>
       <c r="E21">
-        <v>0.98</v>
+        <v>1.58</v>
       </c>
       <c r="F21">
-        <v>12.95</v>
+        <v>12.85</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>62.95</v>
+        <v>62.85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>466</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>7.09</v>
+        <v>8.44</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>1.49</v>
       </c>
       <c r="F22">
-        <v>14.17</v>
+        <v>16.88</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>64.17</v>
+        <v>66.88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>4.63</v>
+        <v>6.55</v>
       </c>
       <c r="E23">
-        <v>0.58</v>
+        <v>1.09</v>
       </c>
       <c r="F23">
-        <v>9.27</v>
+        <v>13.09</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>59.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>473</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>3.54</v>
-      </c>
-      <c r="E24">
-        <v>0.4</v>
-      </c>
-      <c r="F24">
-        <v>7.07</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>57.07</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5588,19 +5542,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2">
-        <v>76.6960185711295</v>
+        <v>78.30956232018428</v>
       </c>
       <c r="D2">
-        <v>1103.392037142259</v>
+        <v>1106.619124640368</v>
       </c>
       <c r="E2">
-        <v>27.14131481631799</v>
+        <v>27.18741606629098</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5640,19 +5594,19 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="E7">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="F7">
-        <v>8.51</v>
+        <v>7.81</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>58.51</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5666,97 +5620,97 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>5.56</v>
+        <v>4.92</v>
       </c>
       <c r="E8">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="F8">
-        <v>11.12</v>
+        <v>9.84</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>61.12</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
       <c r="D9">
+        <v>2.89</v>
+      </c>
+      <c r="E9">
+        <v>0.78</v>
+      </c>
+      <c r="F9">
         <v>5.78</v>
       </c>
-      <c r="E9">
-        <v>1.57</v>
-      </c>
-      <c r="F9">
-        <v>11.57</v>
-      </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>61.57</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>6.21</v>
+        <v>5.49</v>
       </c>
       <c r="E10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="F10">
-        <v>12.42</v>
+        <v>10.98</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>62.42</v>
+        <v>60.98</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>4.85</v>
+        <v>6.07</v>
       </c>
       <c r="E11">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="F11">
-        <v>9.699999999999999</v>
+        <v>12.15</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>59.7</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5767,16 +5721,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>2.45</v>
+        <v>4.85</v>
       </c>
       <c r="E12">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="F12">
-        <v>4.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -5787,340 +5741,340 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>2.3</v>
+        <v>5.68</v>
       </c>
       <c r="E13">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="F13">
-        <v>4.6</v>
+        <v>11.36</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>54.6</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>5.87</v>
+        <v>4.16</v>
       </c>
       <c r="E14">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="F14">
-        <v>11.73</v>
+        <v>8.33</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>61.73</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>4.2</v>
+        <v>3.61</v>
       </c>
       <c r="E15">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="F15">
-        <v>8.41</v>
+        <v>7.22</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>58.41</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>3.76</v>
+        <v>4.42</v>
       </c>
       <c r="E16">
-        <v>1.31</v>
+        <v>2.13</v>
       </c>
       <c r="F16">
-        <v>7.51</v>
+        <v>8.83</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>57.51</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>4.55</v>
+        <v>5.14</v>
       </c>
       <c r="E17">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
       <c r="F17">
-        <v>9.1</v>
+        <v>10.29</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>59.1</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>5.26</v>
+        <v>2.56</v>
       </c>
       <c r="E18">
-        <v>2.65</v>
+        <v>0.97</v>
       </c>
       <c r="F18">
-        <v>10.52</v>
+        <v>5.11</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>60.52</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>88</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>3.23</v>
+        <v>5.64</v>
       </c>
       <c r="E19">
-        <v>1.59</v>
+        <v>0.46</v>
       </c>
       <c r="F19">
-        <v>6.45</v>
+        <v>11.28</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>56.45</v>
+        <v>61.28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>2.45</v>
+        <v>3.04</v>
       </c>
       <c r="E20">
-        <v>0.97</v>
+        <v>1.69</v>
       </c>
       <c r="F20">
-        <v>4.89</v>
+        <v>6.07</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>54.89</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>481</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>5.72</v>
+        <v>2.54</v>
       </c>
       <c r="E21">
-        <v>0.46</v>
+        <v>1.42</v>
       </c>
       <c r="F21">
-        <v>11.43</v>
+        <v>5.08</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>61.43</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>2.88</v>
+        <v>3.77</v>
       </c>
       <c r="E22">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="F22">
-        <v>5.77</v>
+        <v>7.53</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>55.77</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="E23">
-        <v>0.83</v>
+        <v>1.61</v>
       </c>
       <c r="F23">
-        <v>5.48</v>
+        <v>4.48</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>55.48</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>2.57</v>
+        <v>3.28</v>
       </c>
       <c r="E24">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="F24">
-        <v>5.13</v>
+        <v>6.57</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>55.13</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>2.07</v>
+        <v>4.1</v>
       </c>
       <c r="E25">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="F25">
-        <v>4.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="H25">
-        <v>54.15</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6172,13 +6126,13 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>119.2378155884428</v>
+        <v>119.8390036500203</v>
       </c>
       <c r="D2">
-        <v>1138.475631176886</v>
+        <v>1139.678007300041</v>
       </c>
       <c r="E2">
-        <v>28.35679473109836</v>
+        <v>28.37397153285772</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6218,149 +6172,149 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>5.78</v>
+        <v>5.49</v>
       </c>
       <c r="E7">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="F7">
-        <v>11.56</v>
+        <v>10.98</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>61.56</v>
+        <v>60.98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>5.42</v>
+        <v>6.19</v>
       </c>
       <c r="E8">
-        <v>1.1</v>
+        <v>2.33</v>
       </c>
       <c r="F8">
-        <v>10.83</v>
+        <v>12.39</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>60.83</v>
+        <v>62.39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>8.34</v>
+        <v>5.29</v>
       </c>
       <c r="E9">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
-        <v>16.68</v>
+        <v>10.58</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>66.68000000000001</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>6.29</v>
+        <v>7.92</v>
       </c>
       <c r="E10">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="F10">
-        <v>12.57</v>
+        <v>15.84</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>62.57</v>
+        <v>65.84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>6.78</v>
+        <v>5.7</v>
       </c>
       <c r="E11">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="F11">
-        <v>13.56</v>
+        <v>11.4</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>63.56</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>6.91</v>
+        <v>6.69</v>
       </c>
       <c r="E12">
-        <v>1.1</v>
+        <v>0.89</v>
       </c>
       <c r="F12">
-        <v>13.82</v>
+        <v>13.37</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6374,279 +6328,279 @@
         <v>47</v>
       </c>
       <c r="D13">
-        <v>6.98</v>
+        <v>6.72</v>
       </c>
       <c r="E13">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F13">
-        <v>13.96</v>
+        <v>13.44</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>63.96</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="E14">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="F14">
-        <v>16.41</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>66.41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>7.11</v>
+        <v>5.52</v>
       </c>
       <c r="E15">
-        <v>1.45</v>
+        <v>0.86</v>
       </c>
       <c r="F15">
-        <v>14.21</v>
+        <v>11.05</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>64.20999999999999</v>
+        <v>61.05</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>6.07</v>
+        <v>6.19</v>
       </c>
       <c r="E16">
-        <v>0.87</v>
+        <v>2.83</v>
       </c>
       <c r="F16">
-        <v>12.14</v>
+        <v>12.37</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>62.14</v>
+        <v>62.37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>6.36</v>
+        <v>5.35</v>
       </c>
       <c r="E17">
-        <v>2.83</v>
+        <v>1.6</v>
       </c>
       <c r="F17">
-        <v>12.73</v>
+        <v>10.7</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>62.73</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>5.54</v>
+        <v>6.39</v>
       </c>
       <c r="E18">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="F18">
-        <v>11.08</v>
+        <v>12.77</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>61.08</v>
+        <v>62.77</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>6.56</v>
+        <v>5.13</v>
       </c>
       <c r="E19">
-        <v>2.34</v>
+        <v>1.3</v>
       </c>
       <c r="F19">
-        <v>13.12</v>
+        <v>10.25</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>63.12</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>27</v>
       </c>
-      <c r="C20">
-        <v>42</v>
-      </c>
       <c r="D20">
-        <v>6.49</v>
+        <v>8.76</v>
       </c>
       <c r="E20">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
       <c r="F20">
-        <v>12.99</v>
+        <v>17.52</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>62.99</v>
+        <v>67.52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>5.06</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E21">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F21">
-        <v>10.12</v>
+        <v>18.73</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>60.12</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>8.52</v>
+        <v>4.6</v>
       </c>
       <c r="E22">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="F22">
-        <v>17.04</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>67.04000000000001</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>4.47</v>
+        <v>8.91</v>
       </c>
       <c r="E23">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="F23">
-        <v>8.94</v>
+        <v>17.81</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>58.94</v>
+        <v>67.81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6660,29 +6614,29 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>8.35</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E24">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="F24">
-        <v>16.69</v>
+        <v>18.27</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>66.69</v>
+        <v>68.27</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6718,19 +6672,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>108.4969734668217</v>
+        <v>93.21488338296359</v>
       </c>
       <c r="D2">
-        <v>1166.993946933643</v>
+        <v>1086.429766765927</v>
       </c>
       <c r="E2">
-        <v>28.04991352762348</v>
+        <v>27.61328238237039</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6767,100 +6721,100 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>6.29</v>
+        <v>6.49</v>
       </c>
       <c r="E7">
-        <v>2.13</v>
+        <v>2.54</v>
       </c>
       <c r="F7">
-        <v>12.58</v>
+        <v>12.99</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>62.58</v>
+        <v>62.99</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="F8">
-        <v>8.59</v>
+        <v>8.99</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>58.59</v>
+        <v>58.99</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>4.84</v>
+        <v>5.08</v>
       </c>
       <c r="E9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="F9">
-        <v>9.68</v>
+        <v>10.17</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>59.68</v>
+        <v>60.17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>5.53</v>
+        <v>3.29</v>
       </c>
       <c r="E10">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="F10">
-        <v>11.06</v>
+        <v>6.59</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>61.06</v>
+        <v>56.59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6871,230 +6825,230 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="F11">
-        <v>10.19</v>
+        <v>10.41</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>60.19</v>
+        <v>60.41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>5.22</v>
+        <v>6.17</v>
       </c>
       <c r="E12">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="F12">
-        <v>10.45</v>
+        <v>12.33</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>5.62</v>
+        <v>5.22</v>
       </c>
       <c r="E13">
-        <v>2.21</v>
+        <v>1.15</v>
       </c>
       <c r="F13">
-        <v>11.24</v>
+        <v>10.44</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>61.24</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>6.52</v>
+        <v>5.44</v>
       </c>
       <c r="E14">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="F14">
-        <v>13.05</v>
+        <v>10.89</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>63.05</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>5.64</v>
+        <v>6.17</v>
       </c>
       <c r="E15">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="F15">
-        <v>11.28</v>
+        <v>12.34</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>61.28</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>6.65</v>
+        <v>5.6</v>
       </c>
       <c r="E16">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="F16">
-        <v>13.31</v>
+        <v>11.19</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>63.31</v>
+        <v>61.19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>6.13</v>
+        <v>3.02</v>
       </c>
       <c r="E17">
-        <v>1.98</v>
+        <v>0.59</v>
       </c>
       <c r="F17">
-        <v>12.25</v>
+        <v>6.04</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>62.25</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>5.75</v>
+        <v>6.06</v>
       </c>
       <c r="E18">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="F18">
-        <v>11.49</v>
+        <v>12.13</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>61.49</v>
+        <v>62.13</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>6.07</v>
+        <v>4.43</v>
       </c>
       <c r="E19">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="F19">
-        <v>12.13</v>
+        <v>8.85</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>62.13</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7105,22 +7059,22 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>4.98</v>
+        <v>5.19</v>
       </c>
       <c r="E20">
-        <v>0.99</v>
+        <v>1.3</v>
       </c>
       <c r="F20">
-        <v>9.960000000000001</v>
+        <v>10.37</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>59.96</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7131,22 +7085,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>6.78</v>
+        <v>7.33</v>
       </c>
       <c r="E21">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="F21">
-        <v>13.56</v>
+        <v>14.66</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>63.56</v>
+        <v>64.66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7157,110 +7111,84 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>4.17</v>
+        <v>2.67</v>
       </c>
       <c r="E22">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="F22">
-        <v>8.34</v>
+        <v>5.34</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>58.34</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>4.77</v>
+        <v>5.49</v>
       </c>
       <c r="E23">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="F23">
-        <v>9.529999999999999</v>
+        <v>10.98</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>59.53</v>
+        <v>60.98</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>8.140000000000001</v>
+        <v>5.87</v>
       </c>
       <c r="E24">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="F24">
-        <v>16.29</v>
+        <v>11.74</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="H24">
-        <v>66.29000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>0.97</v>
-      </c>
-      <c r="F25">
-        <v>12.01</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>62.01</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7296,19 +7224,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>89.02920846477306</v>
+        <v>87.30958498125925</v>
       </c>
       <c r="D2">
-        <v>978.0584169295461</v>
+        <v>974.6191699625185</v>
       </c>
       <c r="E2">
-        <v>27.49369167042209</v>
+        <v>27.44455957089312</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7348,19 +7276,19 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="E7">
         <v>0.67</v>
       </c>
       <c r="F7">
-        <v>4.89</v>
+        <v>4.58</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>54.89</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7374,19 +7302,19 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>4.93</v>
+        <v>4.8</v>
       </c>
       <c r="E8">
         <v>1.04</v>
       </c>
       <c r="F8">
-        <v>9.859999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>59.86</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7400,19 +7328,19 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>5.84</v>
+        <v>5.67</v>
       </c>
       <c r="E9">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="F9">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>61.69</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7426,19 +7354,19 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="E10">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F10">
-        <v>5.49</v>
+        <v>4.91</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>55.49</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7452,24 +7380,24 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>5.82</v>
+        <v>5.66</v>
       </c>
       <c r="E11">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="F11">
-        <v>11.64</v>
+        <v>11.32</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>61.64</v>
+        <v>61.32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -7478,19 +7406,19 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="E12">
         <v>1.06</v>
       </c>
       <c r="F12">
-        <v>4.09</v>
+        <v>3.87</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7498,25 +7426,25 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13">
-        <v>6.25</v>
+        <v>6.19</v>
       </c>
       <c r="E13">
         <v>2.38</v>
       </c>
       <c r="F13">
-        <v>12.51</v>
+        <v>12.38</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>62.51</v>
+        <v>62.38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7524,25 +7452,25 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>43</v>
       </c>
       <c r="D14">
-        <v>9.06</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E14">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="F14">
-        <v>18.11</v>
+        <v>16.91</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>68.11</v>
+        <v>66.91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7550,25 +7478,25 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>48</v>
       </c>
       <c r="D15">
-        <v>6.09</v>
+        <v>5.98</v>
       </c>
       <c r="E15">
         <v>2.57</v>
       </c>
       <c r="F15">
-        <v>12.19</v>
+        <v>11.96</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>62.19</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7576,25 +7504,25 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>47</v>
       </c>
       <c r="D16">
-        <v>7.56</v>
+        <v>6.95</v>
       </c>
       <c r="E16">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F16">
-        <v>15.11</v>
+        <v>13.89</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>65.11</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7602,25 +7530,25 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>6.99</v>
+        <v>6.91</v>
       </c>
       <c r="E17">
         <v>1.55</v>
       </c>
       <c r="F17">
-        <v>13.98</v>
+        <v>13.82</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>63.98</v>
+        <v>63.82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7628,25 +7556,25 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>6.25</v>
+        <v>6.1</v>
       </c>
       <c r="E18">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F18">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>62.5</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7657,22 +7585,22 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>5.12</v>
+        <v>6.29</v>
       </c>
       <c r="E19">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="F19">
-        <v>10.24</v>
+        <v>12.57</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>60.24</v>
+        <v>62.57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7686,19 +7614,19 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>5.87</v>
+        <v>5.63</v>
       </c>
       <c r="E20">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="F20">
-        <v>11.74</v>
+        <v>11.25</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>61.74</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7712,19 +7640,19 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>5.84</v>
+        <v>5.46</v>
       </c>
       <c r="E21">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="F21">
-        <v>11.69</v>
+        <v>10.92</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>61.69</v>
+        <v>60.92</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7735,32 +7663,32 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>6.17</v>
+        <v>6.55</v>
       </c>
       <c r="E22">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="F22">
-        <v>12.34</v>
+        <v>13.09</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>62.34</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7796,19 +7724,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
       <c r="C2">
-        <v>101.036829682603</v>
+        <v>105.6797287339481</v>
       </c>
       <c r="D2">
-        <v>1052.073659365206</v>
+        <v>1061.359457467896</v>
       </c>
       <c r="E2">
-        <v>27.83676656236009</v>
+        <v>27.96942082096995</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7839,418 +7767,418 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>5.88</v>
+        <v>10.93</v>
       </c>
       <c r="E7">
-        <v>1.77</v>
+        <v>0.76</v>
       </c>
       <c r="F7">
-        <v>11.77</v>
+        <v>21.87</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>61.77</v>
+        <v>71.87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>4.72</v>
+        <v>4.95</v>
       </c>
       <c r="E8">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="F8">
-        <v>9.44</v>
+        <v>9.91</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>59.44</v>
+        <v>59.91</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>4.71</v>
+        <v>4.07</v>
       </c>
       <c r="E9">
-        <v>0.83</v>
+        <v>2.07</v>
       </c>
       <c r="F9">
-        <v>9.43</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>59.43</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
       <c r="C10">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="E10">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="F10">
-        <v>8.73</v>
+        <v>8.74</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>58.73</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>4.26</v>
+        <v>1.99</v>
       </c>
       <c r="E11">
-        <v>2.37</v>
+        <v>0.91</v>
       </c>
       <c r="F11">
-        <v>8.52</v>
+        <v>3.98</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>58.52</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>3.44</v>
+        <v>2.97</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="F12">
-        <v>6.87</v>
+        <v>5.95</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
       <c r="C13">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="E13">
-        <v>1.13</v>
+        <v>1.84</v>
       </c>
       <c r="F13">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>55.73</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>11.01</v>
+        <v>2.1</v>
       </c>
       <c r="E14">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="F14">
-        <v>22.01</v>
+        <v>4.2</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>72.01000000000001</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>4.29</v>
+        <v>2.85</v>
       </c>
       <c r="E15">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="F15">
-        <v>8.59</v>
+        <v>5.7</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15">
-        <v>58.59</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>3.56</v>
+        <v>4.42</v>
       </c>
       <c r="E16">
-        <v>1.85</v>
+        <v>1.43</v>
       </c>
       <c r="F16">
-        <v>7.12</v>
+        <v>8.84</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>57.12</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="F17">
-        <v>10.19</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>60.19</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E18">
-        <v>2.78</v>
+        <v>2.07</v>
       </c>
       <c r="F18">
-        <v>8.9</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>58.9</v>
+        <v>58.71</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>4.33</v>
+        <v>21.36</v>
       </c>
       <c r="E19">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="F19">
-        <v>8.67</v>
+        <v>42.72</v>
       </c>
       <c r="G19">
         <v>50</v>
       </c>
       <c r="H19">
-        <v>58.67</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>3.71</v>
+        <v>4.92</v>
       </c>
       <c r="E20">
-        <v>1.21</v>
+        <v>2.19</v>
       </c>
       <c r="F20">
-        <v>7.41</v>
+        <v>9.83</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
-        <v>57.41</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>20.59</v>
+        <v>6.02</v>
       </c>
       <c r="E21">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F21">
-        <v>41.17</v>
+        <v>12.03</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>91.17</v>
+        <v>62.03</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>3.34</v>
+        <v>5.38</v>
       </c>
       <c r="E22">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F22">
-        <v>6.68</v>
+        <v>10.76</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>56.68</v>
+        <v>60.76</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8261,32 +8189,32 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>10.42</v>
+        <v>17.06</v>
       </c>
       <c r="E23">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="F23">
-        <v>20.85</v>
+        <v>34.13</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>70.84999999999999</v>
+        <v>84.13</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
